--- a/Xlsx files/TestSuite.xlsx
+++ b/Xlsx files/TestSuite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>TSID</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>Description for Suite B</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>C Suite</t>
@@ -390,7 +387,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,15 +426,15 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>

--- a/Xlsx files/TestSuite.xlsx
+++ b/Xlsx files/TestSuite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="17235" windowHeight="6210"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="17235" windowHeight="6150"/>
   </bookViews>
   <sheets>
     <sheet name="Testsuite" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>TSID</t>
   </si>
@@ -27,12 +27,6 @@
     <t>Runmode</t>
   </si>
   <si>
-    <t>A Suite</t>
-  </si>
-  <si>
-    <t>Description for Suite A</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -46,6 +40,15 @@
   </si>
   <si>
     <t>Description for Suite C</t>
+  </si>
+  <si>
+    <t>Login Suite</t>
+  </si>
+  <si>
+    <t>To check login for the users</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -387,12 +390,13 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -409,35 +413,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
